--- a/Sprint 1/Sprint_Review/Sprint Burndown.xlsx
+++ b/Sprint 1/Sprint_Review/Sprint Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\Uni\3B\AC31007 - Agile Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C49EB8-2F55-4B1C-8BEB-764C96EEAD8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B7198-B813-4EA8-8491-308DC30AB687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A356709-CCAB-495E-BB46-11E884C92558}"/>
   </bookViews>
@@ -33,7 +33,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Initial Estimate</t>
+  </si>
   <si>
     <t>Day 1</t>
   </si>
@@ -50,9 +53,6 @@
     <t>Day 5</t>
   </si>
   <si>
-    <t>Initial Estimate (hours)</t>
-  </si>
-  <si>
     <t>User Stories/Tasks</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
     <t>The user can order results based on distance</t>
   </si>
   <si>
-    <t>Merge all tasks together</t>
-  </si>
-  <si>
     <t>Remaining Effort</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Create the website, include all input fields</t>
   </si>
   <si>
-    <t>Import data set</t>
-  </si>
-  <si>
     <t>Display data set</t>
   </si>
   <si>
@@ -122,13 +116,37 @@
     <t>Legend:</t>
   </si>
   <si>
-    <t>Added to Sprint</t>
-  </si>
-  <si>
     <t>Projected Value</t>
   </si>
   <si>
     <t>Missing at Start</t>
+  </si>
+  <si>
+    <t>Finish merging all tasks together</t>
+  </si>
+  <si>
+    <t>Map template uses search results from the user input</t>
+  </si>
+  <si>
+    <t>Merge HTML front end with back end search function: search by code, distance, procedure</t>
+  </si>
+  <si>
+    <t>Merge HTML front end with back end search function: restrict search by distance, price</t>
+  </si>
+  <si>
+    <t>Merge HTML front end with back end sarch function: Order by price, distance</t>
+  </si>
+  <si>
+    <t>Added to Sprint later</t>
+  </si>
+  <si>
+    <t>Link Java functions to SQL database</t>
+  </si>
+  <si>
+    <t>Call Java functions from HTML</t>
+  </si>
+  <si>
+    <t>Display data set front end template</t>
   </si>
 </sst>
 </file>
@@ -193,7 +211,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -206,6 +223,7 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -305,9 +323,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.2692038495188102E-2"/>
-          <c:y val="0.30076443569553807"/>
+          <c:y val="0.15822051848782059"/>
           <c:w val="0.90286351706036749"/>
-          <c:h val="0.61498432487605714"/>
+          <c:h val="0.71366843947138192"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -318,7 +336,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
+              <c:f>Sheet1!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -341,7 +359,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$H$20</c:f>
+              <c:f>Sheet1!$C$26:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -349,7 +367,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45</c:v>
@@ -358,10 +376,10 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -378,7 +396,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$21</c:f>
+              <c:f>Sheet1!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -401,7 +419,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$H$21</c:f>
+              <c:f>Sheet1!$C$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -562,6 +580,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24855752405949255"/>
+          <c:y val="0.93466696597135901"/>
+          <c:w val="0.5028849518810149"/>
+          <c:h val="4.3403209467237643E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1195,8 +1223,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1522,70 +1550,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BE7A8-DB9D-4ABB-BC88-D153608F333C}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="73.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7">
         <v>43857</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="7">
         <v>43858</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="7">
         <v>43859</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="7">
         <v>43860</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="7">
         <v>43861</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1594,9 +1622,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1605,39 +1633,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="3">
+      <c r="B6" s="4"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="2">
         <v>-1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="3">
+      <c r="B7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2">
         <v>-3</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1648,21 +1678,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>-2</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1681,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1692,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1703,21 +1733,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>-2</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1739,7 +1769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1750,98 +1780,144 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="G19" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="G20" s="2">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="J24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-10</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="C26">
+        <f>SUM($B$3:$B$25)</f>
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <f>C26-SUM(D3:D25)</f>
+        <v>58</v>
+      </c>
+      <c r="E26">
+        <f>D26-SUM(E3:E25)</f>
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <f>E26-SUM(F3:F25)</f>
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <f>F26-SUM(G3:G25)</f>
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <f>G26-SUM(H3:H25)</f>
+        <v>40</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
-        <f>SUM($B$3:$B$19)</f>
+      <c r="C27">
+        <f>SUM($B$3:$B$25)</f>
         <v>60</v>
       </c>
-      <c r="D20">
-        <f>SUM($B$3:$B$19)-SUM(D3:D19)</f>
-        <v>62</v>
-      </c>
-      <c r="E20">
-        <f>D20-SUM(E3:E19)</f>
-        <v>45</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ref="F20:H20" si="0">E20-SUM(F3:F19)</f>
-        <v>33</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <f>SUM($B$3:$B$19)</f>
-        <v>60</v>
-      </c>
-      <c r="D21">
+      <c r="D27">
         <v>48</v>
       </c>
-      <c r="E21">
+      <c r="E27">
         <v>36</v>
       </c>
-      <c r="F21">
+      <c r="F27">
         <v>24</v>
       </c>
-      <c r="G21">
+      <c r="G27">
         <v>12</v>
       </c>
-      <c r="H21">
+      <c r="H27">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="4"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sprint 1/Sprint_Review/Sprint Burndown.xlsx
+++ b/Sprint 1/Sprint_Review/Sprint Burndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\Uni\3B\AC31007 - Agile Software Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\Uni\3B\AC31007 - Agile Software Engineering\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B7198-B813-4EA8-8491-308DC30AB687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09A3A4A-4BB4-4A35-95E9-22014D8FAB10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A356709-CCAB-495E-BB46-11E884C92558}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Initial Estimate</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Display data set front end template</t>
+  </si>
+  <si>
+    <t>Sprint Burndown</t>
+  </si>
+  <si>
+    <t>TODO: Velocity</t>
   </si>
 </sst>
 </file>
@@ -1550,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BE7A8-DB9D-4ABB-BC88-D153608F333C}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,6 +1570,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7">
@@ -1769,7 +1778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1780,7 +1789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1797,7 +1806,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1806,26 +1815,26 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="4"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1837,8 +1846,11 @@
         <v>28</v>
       </c>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1853,7 +1865,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,7 +1898,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1910,13 +1922,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D31" s="8"/>
     </row>
   </sheetData>
